--- a/data/taxa_per_stage_per_metric_species.xlsx
+++ b/data/taxa_per_stage_per_metric_species.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,7 +404,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pleistocene</t>
+          <t>Ple</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -428,7 +428,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pliocene</t>
+          <t>Pli</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -522,11 +522,6 @@
       <c r="D7">
         <v>195.7660308341786</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Langhian</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -546,11 +541,6 @@
       <c r="D8">
         <v>204.7549204726782</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Burdigalian</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -570,11 +560,6 @@
       <c r="D9">
         <v>243.7135290470153</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Aquitanian</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -594,11 +579,6 @@
       <c r="D10">
         <v>150.1235999443907</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Chattian</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -666,11 +646,6 @@
       <c r="D13">
         <v>277.8578979716811</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Bartonian</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -690,11 +665,6 @@
       <c r="D14">
         <v>248.0539660725896</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Lutetian</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -738,11 +708,6 @@
       <c r="D16">
         <v>201.9782334238457</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Thanetian</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -762,11 +727,6 @@
       <c r="D17">
         <v>206.7802944043428</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Selandian</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -810,11 +770,6 @@
       <c r="D19">
         <v>217.7243263380989</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Maastrichtian</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -858,11 +813,6 @@
       <c r="D21">
         <v>164.7071554586497</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Santonian</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -954,11 +904,6 @@
       <c r="D25">
         <v>79.9419864546891</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Albian</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -978,11 +923,6 @@
       <c r="D26">
         <v>50.94718302094572</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>pyrate</t>
@@ -1100,7 +1040,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pleistocene</t>
+          <t>Ple</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1124,7 +1064,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Pliocene</t>
+          <t>Pli</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1218,11 +1158,6 @@
       <c r="D36">
         <v>232</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Langhian</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1242,11 +1177,6 @@
       <c r="D37">
         <v>238</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Burdigalian</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1266,11 +1196,6 @@
       <c r="D38">
         <v>204</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Aquitanian</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1290,11 +1215,6 @@
       <c r="D39">
         <v>177</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Chattian</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1362,11 +1282,6 @@
       <c r="D42">
         <v>246</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Bartonian</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1386,11 +1301,6 @@
       <c r="D43">
         <v>255</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Lutetian</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1434,11 +1344,6 @@
       <c r="D45">
         <v>193</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Thanetian</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1458,11 +1363,6 @@
       <c r="D46">
         <v>121</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Selandian</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1506,11 +1406,6 @@
       <c r="D48">
         <v>226</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Maastrichtian</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1554,11 +1449,6 @@
       <c r="D50">
         <v>156</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Santonian</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1650,11 +1540,6 @@
       <c r="D54">
         <v>92</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Albian</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1674,11 +1559,6 @@
       <c r="D55">
         <v>43</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>raw</t>
@@ -1796,7 +1676,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pleistocene</t>
+          <t>Ple</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -1820,7 +1700,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pliocene</t>
+          <t>Pli</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -1914,11 +1794,6 @@
       <c r="D65">
         <v>23.13</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Langhian</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -1938,11 +1813,6 @@
       <c r="D66">
         <v>24.34</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Burdigalian</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -1962,11 +1832,6 @@
       <c r="D67">
         <v>24.46</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Aquitanian</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -1986,11 +1851,6 @@
       <c r="D68">
         <v>25.67</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Chattian</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2058,11 +1918,6 @@
       <c r="D71">
         <v>40.7</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Bartonian</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2082,11 +1937,6 @@
       <c r="D72">
         <v>33.53</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Lutetian</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2130,11 +1980,6 @@
       <c r="D74">
         <v>24.56</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Thanetian</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2154,11 +1999,6 @@
       <c r="D75">
         <v>22.56</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Selandian</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2202,11 +2042,6 @@
       <c r="D77">
         <v>24.78</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Maastrichtian</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2250,11 +2085,6 @@
       <c r="D79">
         <v>31.67</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Santonian</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2346,11 +2176,6 @@
       <c r="D83">
         <v>13.51</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Albian</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2370,11 +2195,6 @@
       <c r="D84">
         <v>11.95</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>sqs</t>
@@ -2473,17 +2293,17 @@
         <v>2.58</v>
       </c>
       <c r="B89">
-        <v>13.724</v>
+        <v>22.764</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2492,17 +2312,17 @@
         <v>5.333</v>
       </c>
       <c r="B90">
-        <v>17.74</v>
+        <v>26.774</v>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2511,17 +2331,17 @@
         <v>7.246</v>
       </c>
       <c r="B91">
-        <v>11.758</v>
+        <v>35.12</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2530,17 +2350,17 @@
         <v>11.63</v>
       </c>
       <c r="B92">
-        <v>18.322</v>
+        <v>31.566</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D92">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2549,17 +2369,17 @@
         <v>13.82</v>
       </c>
       <c r="B93">
-        <v>20.976</v>
+        <v>31.162</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D93">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2568,17 +2388,17 @@
         <v>15.97</v>
       </c>
       <c r="B94">
-        <v>21.18</v>
+        <v>35.326</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2587,17 +2407,17 @@
         <v>20.44</v>
       </c>
       <c r="B95">
-        <v>22.406</v>
+        <v>34.458</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D95">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2606,17 +2426,17 @@
         <v>23.03</v>
       </c>
       <c r="B96">
-        <v>18.432</v>
+        <v>28.702</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2625,17 +2445,17 @@
         <v>27.82</v>
       </c>
       <c r="B97">
-        <v>21.334</v>
+        <v>30.612</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D97">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2644,17 +2464,17 @@
         <v>33.9</v>
       </c>
       <c r="B98">
-        <v>20.016</v>
+        <v>26.052</v>
       </c>
       <c r="C98">
         <v>6</v>
       </c>
       <c r="D98">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2483,17 @@
         <v>37.71</v>
       </c>
       <c r="B99">
-        <v>18.428</v>
+        <v>32.834</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D99">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2682,17 +2502,17 @@
         <v>41.2</v>
       </c>
       <c r="B100">
-        <v>33.148</v>
+        <v>54.452</v>
       </c>
       <c r="C100">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2701,17 +2521,17 @@
         <v>47.8</v>
       </c>
       <c r="B101">
-        <v>40.928</v>
+        <v>62.756</v>
       </c>
       <c r="C101">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2720,17 +2540,17 @@
         <v>56</v>
       </c>
       <c r="B102">
-        <v>30.98</v>
+        <v>50.418</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2739,17 +2559,17 @@
         <v>59.2</v>
       </c>
       <c r="B103">
-        <v>35.126</v>
+        <v>63.54</v>
       </c>
       <c r="C103">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D103">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2758,17 +2578,17 @@
         <v>61.6</v>
       </c>
       <c r="B104">
-        <v>4.762</v>
+        <v>15.694</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2777,17 +2597,17 @@
         <v>66</v>
       </c>
       <c r="B105">
-        <v>29.762</v>
+        <v>50.438</v>
       </c>
       <c r="C105">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D105">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2796,17 +2616,17 @@
         <v>72.09999999999999</v>
       </c>
       <c r="B106">
-        <v>16.658</v>
+        <v>33.982</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2815,17 +2635,17 @@
         <v>83.59999999999999</v>
       </c>
       <c r="B107">
-        <v>21.778</v>
+        <v>35.138</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D107">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2834,17 +2654,17 @@
         <v>86.3</v>
       </c>
       <c r="B108">
-        <v>25.08</v>
+        <v>38.584</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D108">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2853,17 +2673,17 @@
         <v>89.8</v>
       </c>
       <c r="B109">
-        <v>16.036</v>
+        <v>26.498</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D109">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2872,17 +2692,17 @@
         <v>93.90000000000001</v>
       </c>
       <c r="B110">
-        <v>19.812</v>
+        <v>29</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D110">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2891,17 +2711,17 @@
         <v>100.5</v>
       </c>
       <c r="B111">
-        <v>21.048</v>
+        <v>36.478</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D111">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2910,17 +2730,17 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>19.128</v>
+        <v>31.552</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2929,17 +2749,17 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>17.628</v>
+        <v>22.186</v>
       </c>
       <c r="C113">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D113">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2948,17 +2768,17 @@
         <v>129.4</v>
       </c>
       <c r="B114">
-        <v>11.102</v>
+        <v>16.982</v>
       </c>
       <c r="C114">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
         </is>
       </c>
     </row>
@@ -2967,17 +2787,1043 @@
         <v>132.6</v>
       </c>
       <c r="B115">
-        <v>9.039999999999999</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D115">
         <v>11</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>divvy</t>
+          <t>divvy Circular Subsampling</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>2.58</v>
+      </c>
+      <c r="B116">
+        <v>36.442</v>
+      </c>
+      <c r="C116">
+        <v>16</v>
+      </c>
+      <c r="D116">
+        <v>57</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>5.333</v>
+      </c>
+      <c r="B117">
+        <v>73.896</v>
+      </c>
+      <c r="C117">
+        <v>28</v>
+      </c>
+      <c r="D117">
+        <v>96</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>7.246</v>
+      </c>
+      <c r="B118">
+        <v>46.838</v>
+      </c>
+      <c r="C118">
+        <v>32</v>
+      </c>
+      <c r="D118">
+        <v>56</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>11.63</v>
+      </c>
+      <c r="B119">
+        <v>92.316</v>
+      </c>
+      <c r="C119">
+        <v>16</v>
+      </c>
+      <c r="D119">
+        <v>112</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>13.82</v>
+      </c>
+      <c r="B120">
+        <v>86.202</v>
+      </c>
+      <c r="C120">
+        <v>14</v>
+      </c>
+      <c r="D120">
+        <v>100</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>15.97</v>
+      </c>
+      <c r="B121">
+        <v>95.504</v>
+      </c>
+      <c r="C121">
+        <v>19</v>
+      </c>
+      <c r="D121">
+        <v>107</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>20.44</v>
+      </c>
+      <c r="B122">
+        <v>115.646</v>
+      </c>
+      <c r="C122">
+        <v>34</v>
+      </c>
+      <c r="D122">
+        <v>140</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>23.03</v>
+      </c>
+      <c r="B123">
+        <v>52.016</v>
+      </c>
+      <c r="C123">
+        <v>16</v>
+      </c>
+      <c r="D123">
+        <v>64</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>27.82</v>
+      </c>
+      <c r="B124">
+        <v>45.64</v>
+      </c>
+      <c r="C124">
+        <v>39</v>
+      </c>
+      <c r="D124">
+        <v>57</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>33.9</v>
+      </c>
+      <c r="B125">
+        <v>80.642</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>92</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>37.71</v>
+      </c>
+      <c r="B126">
+        <v>86.81399999999999</v>
+      </c>
+      <c r="C126">
+        <v>21</v>
+      </c>
+      <c r="D126">
+        <v>99</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>41.2</v>
+      </c>
+      <c r="B127">
+        <v>106.84</v>
+      </c>
+      <c r="C127">
+        <v>22</v>
+      </c>
+      <c r="D127">
+        <v>127</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>47.8</v>
+      </c>
+      <c r="B128">
+        <v>166.342</v>
+      </c>
+      <c r="C128">
+        <v>21</v>
+      </c>
+      <c r="D128">
+        <v>178</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>56</v>
+      </c>
+      <c r="B129">
+        <v>194.196</v>
+      </c>
+      <c r="C129">
+        <v>16</v>
+      </c>
+      <c r="D129">
+        <v>214</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>59.2</v>
+      </c>
+      <c r="B130">
+        <v>131.588</v>
+      </c>
+      <c r="C130">
+        <v>104</v>
+      </c>
+      <c r="D130">
+        <v>142</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>61.6</v>
+      </c>
+      <c r="B131">
+        <v>38.426</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>43</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>66</v>
+      </c>
+      <c r="B132">
+        <v>82.80200000000001</v>
+      </c>
+      <c r="C132">
+        <v>13</v>
+      </c>
+      <c r="D132">
+        <v>102</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="B133">
+        <v>155.79</v>
+      </c>
+      <c r="C133">
+        <v>12</v>
+      </c>
+      <c r="D133">
+        <v>191</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="B134">
+        <v>162.526</v>
+      </c>
+      <c r="C134">
+        <v>14</v>
+      </c>
+      <c r="D134">
+        <v>194</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>86.3</v>
+      </c>
+      <c r="B135">
+        <v>76.752</v>
+      </c>
+      <c r="C135">
+        <v>57</v>
+      </c>
+      <c r="D135">
+        <v>81</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>89.8</v>
+      </c>
+      <c r="B136">
+        <v>50.484</v>
+      </c>
+      <c r="C136">
+        <v>6</v>
+      </c>
+      <c r="D136">
+        <v>59</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="B137">
+        <v>81.22199999999999</v>
+      </c>
+      <c r="C137">
+        <v>14</v>
+      </c>
+      <c r="D137">
+        <v>98</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>100.5</v>
+      </c>
+      <c r="B138">
+        <v>126.976</v>
+      </c>
+      <c r="C138">
+        <v>22</v>
+      </c>
+      <c r="D138">
+        <v>133</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>113</v>
+      </c>
+      <c r="B139">
+        <v>71.148</v>
+      </c>
+      <c r="C139">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>75</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>125</v>
+      </c>
+      <c r="B140">
+        <v>25.53</v>
+      </c>
+      <c r="C140">
+        <v>25</v>
+      </c>
+      <c r="D140">
+        <v>27</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>129.4</v>
+      </c>
+      <c r="B141">
+        <v>21</v>
+      </c>
+      <c r="C141">
+        <v>21</v>
+      </c>
+      <c r="D141">
+        <v>21</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>132.6</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <v>11</v>
+      </c>
+      <c r="D142">
+        <v>11</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>divvy Nearest Neighbour</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>2.58</v>
+      </c>
+      <c r="B143">
+        <v>16.822</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>44</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>5.333</v>
+      </c>
+      <c r="B144">
+        <v>18.4104</v>
+      </c>
+      <c r="C144">
+        <v>4</v>
+      </c>
+      <c r="D144">
+        <v>62</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>7.246</v>
+      </c>
+      <c r="B145">
+        <v>30.976</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>47</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>11.63</v>
+      </c>
+      <c r="B146">
+        <v>24.31433333333333</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146">
+        <v>77</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>13.82</v>
+      </c>
+      <c r="B147">
+        <v>23.6068</v>
+      </c>
+      <c r="C147">
+        <v>8</v>
+      </c>
+      <c r="D147">
+        <v>58</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>15.97</v>
+      </c>
+      <c r="B148">
+        <v>26.222</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>64</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>20.44</v>
+      </c>
+      <c r="B149">
+        <v>24.7932</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>64</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>23.03</v>
+      </c>
+      <c r="B150">
+        <v>27.89</v>
+      </c>
+      <c r="C150">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>46</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>27.82</v>
+      </c>
+      <c r="B151">
+        <v>30.68</v>
+      </c>
+      <c r="C151">
+        <v>7</v>
+      </c>
+      <c r="D151">
+        <v>48</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>33.9</v>
+      </c>
+      <c r="B152">
+        <v>20.8585</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+      <c r="D152">
+        <v>40</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>37.71</v>
+      </c>
+      <c r="B153">
+        <v>24.012</v>
+      </c>
+      <c r="C153">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>60</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>41.2</v>
+      </c>
+      <c r="B154">
+        <v>34.401</v>
+      </c>
+      <c r="C154">
+        <v>16</v>
+      </c>
+      <c r="D154">
+        <v>87</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>47.8</v>
+      </c>
+      <c r="B155">
+        <v>42.673</v>
+      </c>
+      <c r="C155">
+        <v>15</v>
+      </c>
+      <c r="D155">
+        <v>103</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>56</v>
+      </c>
+      <c r="B156">
+        <v>33.381</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>106</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>59.2</v>
+      </c>
+      <c r="B157">
+        <v>55.17</v>
+      </c>
+      <c r="C157">
+        <v>21</v>
+      </c>
+      <c r="D157">
+        <v>96</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>61.6</v>
+      </c>
+      <c r="B158">
+        <v>17.105</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>36</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>66</v>
+      </c>
+      <c r="B159">
+        <v>31.19866666666667</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+      <c r="D159">
+        <v>56</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="B160">
+        <v>20.5916</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>70</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="B161">
+        <v>26.816</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>66</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>86.3</v>
+      </c>
+      <c r="B162">
+        <v>35.148</v>
+      </c>
+      <c r="C162">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>65</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>89.8</v>
+      </c>
+      <c r="B163">
+        <v>22.294</v>
+      </c>
+      <c r="C163">
+        <v>7</v>
+      </c>
+      <c r="D163">
+        <v>47</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="B164">
+        <v>26.326</v>
+      </c>
+      <c r="C164">
+        <v>8</v>
+      </c>
+      <c r="D164">
+        <v>54</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>100.5</v>
+      </c>
+      <c r="B165">
+        <v>19.7476</v>
+      </c>
+      <c r="C165">
+        <v>5</v>
+      </c>
+      <c r="D165">
+        <v>62</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>113</v>
+      </c>
+      <c r="B166">
+        <v>20.37</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166">
+        <v>52</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>125</v>
+      </c>
+      <c r="B167">
+        <v>19.956</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>27</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>129.4</v>
+      </c>
+      <c r="B168">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>13</v>
+      </c>
+      <c r="D168">
+        <v>13</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>132.6</v>
+      </c>
+      <c r="B169">
+        <v>10.004</v>
+      </c>
+      <c r="C169">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>11</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>divvy Equal Latitudinal Bands</t>
         </is>
       </c>
     </row>

--- a/data/taxa_per_stage_per_metric_species.xlsx
+++ b/data/taxa_per_stage_per_metric_species.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2293,17 +2293,17 @@
         <v>2.58</v>
       </c>
       <c r="B89">
-        <v>22.764</v>
+        <v>55.5995</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2312,17 +2312,17 @@
         <v>5.333</v>
       </c>
       <c r="B90">
-        <v>26.774</v>
+        <v>77.89</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D90">
-        <v>67</v>
+        <v>519</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2331,17 +2331,17 @@
         <v>7.246</v>
       </c>
       <c r="B91">
-        <v>35.12</v>
+        <v>78.34666666666666</v>
       </c>
       <c r="C91">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D91">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2350,17 +2350,17 @@
         <v>11.63</v>
       </c>
       <c r="B92">
-        <v>31.566</v>
+        <v>100.8955</v>
       </c>
       <c r="C92">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D92">
-        <v>68</v>
+        <v>635</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2369,17 +2369,17 @@
         <v>13.82</v>
       </c>
       <c r="B93">
-        <v>31.162</v>
+        <v>94.59685714285715</v>
       </c>
       <c r="C93">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D93">
-        <v>59</v>
+        <v>559</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2388,17 +2388,17 @@
         <v>15.97</v>
       </c>
       <c r="B94">
-        <v>35.326</v>
+        <v>181.7015</v>
       </c>
       <c r="C94">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94">
-        <v>74</v>
+        <v>617</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2407,17 +2407,17 @@
         <v>20.44</v>
       </c>
       <c r="B95">
-        <v>34.458</v>
+        <v>187.6848571428571</v>
       </c>
       <c r="C95">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D95">
-        <v>70</v>
+        <v>1395</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2426,17 +2426,17 @@
         <v>23.03</v>
       </c>
       <c r="B96">
-        <v>28.702</v>
+        <v>59.048</v>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D96">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2445,17 +2445,17 @@
         <v>27.82</v>
       </c>
       <c r="B97">
-        <v>30.612</v>
+        <v>57.5912</v>
       </c>
       <c r="C97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D97">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2464,17 +2464,17 @@
         <v>33.9</v>
       </c>
       <c r="B98">
-        <v>26.052</v>
+        <v>144.4643333333333</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>50</v>
+        <v>788</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2483,17 +2483,17 @@
         <v>37.71</v>
       </c>
       <c r="B99">
-        <v>32.834</v>
+        <v>78.58166666666666</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D99">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2502,17 +2502,17 @@
         <v>41.2</v>
       </c>
       <c r="B100">
-        <v>54.452</v>
+        <v>102.056</v>
       </c>
       <c r="C100">
         <v>14</v>
       </c>
       <c r="D100">
-        <v>97</v>
+        <v>271</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2521,17 +2521,17 @@
         <v>47.8</v>
       </c>
       <c r="B101">
-        <v>62.756</v>
+        <v>244.946</v>
       </c>
       <c r="C101">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D101">
-        <v>103</v>
+        <v>821</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2540,17 @@
         <v>56</v>
       </c>
       <c r="B102">
-        <v>50.418</v>
+        <v>214.647</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D102">
-        <v>104</v>
+        <v>1109</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2559,17 +2559,17 @@
         <v>59.2</v>
       </c>
       <c r="B103">
-        <v>63.54</v>
+        <v>263.5833333333333</v>
       </c>
       <c r="C103">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D103">
-        <v>101</v>
+        <v>616</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2578,17 +2578,17 @@
         <v>61.6</v>
       </c>
       <c r="B104">
-        <v>15.694</v>
+        <v>47.0815</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D104">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2597,17 +2597,17 @@
         <v>66</v>
       </c>
       <c r="B105">
-        <v>50.438</v>
+        <v>106.2164</v>
       </c>
       <c r="C105">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D105">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
         <v>72.09999999999999</v>
       </c>
       <c r="B106">
-        <v>33.982</v>
+        <v>144.3394285714286</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D106">
-        <v>71</v>
+        <v>1089</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2635,17 +2635,17 @@
         <v>83.59999999999999</v>
       </c>
       <c r="B107">
-        <v>35.138</v>
+        <v>261.3564</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D107">
-        <v>71</v>
+        <v>1413</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2654,17 +2654,17 @@
         <v>86.3</v>
       </c>
       <c r="B108">
-        <v>38.584</v>
+        <v>86.45699999999999</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D108">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2673,17 +2673,17 @@
         <v>89.8</v>
       </c>
       <c r="B109">
-        <v>26.498</v>
+        <v>59.85666666666667</v>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D109">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2692,17 +2692,17 @@
         <v>93.90000000000001</v>
       </c>
       <c r="B110">
-        <v>29</v>
+        <v>115.6266666666667</v>
       </c>
       <c r="C110">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D110">
-        <v>61</v>
+        <v>388</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2711,17 +2711,17 @@
         <v>100.5</v>
       </c>
       <c r="B111">
-        <v>36.478</v>
+        <v>137.3514285714286</v>
       </c>
       <c r="C111">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D111">
-        <v>71</v>
+        <v>955</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2730,17 +2730,17 @@
         <v>113</v>
       </c>
       <c r="B112">
-        <v>31.552</v>
+        <v>111.211</v>
       </c>
       <c r="C112">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112">
-        <v>54</v>
+        <v>349</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2749,17 +2749,17 @@
         <v>125</v>
       </c>
       <c r="B113">
-        <v>22.186</v>
+        <v>32.76933333333334</v>
       </c>
       <c r="C113">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D113">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2768,17 +2768,17 @@
         <v>129.4</v>
       </c>
       <c r="B114">
-        <v>16.982</v>
+        <v>36.906</v>
       </c>
       <c r="C114">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D114">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
@@ -2787,1043 +2787,17 @@
         <v>132.6</v>
       </c>
       <c r="B115">
-        <v>11</v>
+        <v>21.70933333333333</v>
       </c>
       <c r="C115">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>divvy Circular Subsampling</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116">
-        <v>2.58</v>
-      </c>
-      <c r="B116">
-        <v>36.442</v>
-      </c>
-      <c r="C116">
-        <v>16</v>
-      </c>
-      <c r="D116">
-        <v>57</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117">
-        <v>5.333</v>
-      </c>
-      <c r="B117">
-        <v>73.896</v>
-      </c>
-      <c r="C117">
-        <v>28</v>
-      </c>
-      <c r="D117">
-        <v>96</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118">
-        <v>7.246</v>
-      </c>
-      <c r="B118">
-        <v>46.838</v>
-      </c>
-      <c r="C118">
-        <v>32</v>
-      </c>
-      <c r="D118">
-        <v>56</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119">
-        <v>11.63</v>
-      </c>
-      <c r="B119">
-        <v>92.316</v>
-      </c>
-      <c r="C119">
-        <v>16</v>
-      </c>
-      <c r="D119">
-        <v>112</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120">
-        <v>13.82</v>
-      </c>
-      <c r="B120">
-        <v>86.202</v>
-      </c>
-      <c r="C120">
-        <v>14</v>
-      </c>
-      <c r="D120">
-        <v>100</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121">
-        <v>15.97</v>
-      </c>
-      <c r="B121">
-        <v>95.504</v>
-      </c>
-      <c r="C121">
-        <v>19</v>
-      </c>
-      <c r="D121">
-        <v>107</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122">
-        <v>20.44</v>
-      </c>
-      <c r="B122">
-        <v>115.646</v>
-      </c>
-      <c r="C122">
-        <v>34</v>
-      </c>
-      <c r="D122">
-        <v>140</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123">
-        <v>23.03</v>
-      </c>
-      <c r="B123">
-        <v>52.016</v>
-      </c>
-      <c r="C123">
-        <v>16</v>
-      </c>
-      <c r="D123">
-        <v>64</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124">
-        <v>27.82</v>
-      </c>
-      <c r="B124">
-        <v>45.64</v>
-      </c>
-      <c r="C124">
-        <v>39</v>
-      </c>
-      <c r="D124">
-        <v>57</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125">
-        <v>33.9</v>
-      </c>
-      <c r="B125">
-        <v>80.642</v>
-      </c>
-      <c r="C125">
-        <v>10</v>
-      </c>
-      <c r="D125">
-        <v>92</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126">
-        <v>37.71</v>
-      </c>
-      <c r="B126">
-        <v>86.81399999999999</v>
-      </c>
-      <c r="C126">
-        <v>21</v>
-      </c>
-      <c r="D126">
-        <v>99</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127">
-        <v>41.2</v>
-      </c>
-      <c r="B127">
-        <v>106.84</v>
-      </c>
-      <c r="C127">
-        <v>22</v>
-      </c>
-      <c r="D127">
-        <v>127</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128">
-        <v>47.8</v>
-      </c>
-      <c r="B128">
-        <v>166.342</v>
-      </c>
-      <c r="C128">
-        <v>21</v>
-      </c>
-      <c r="D128">
-        <v>178</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129">
-        <v>56</v>
-      </c>
-      <c r="B129">
-        <v>194.196</v>
-      </c>
-      <c r="C129">
-        <v>16</v>
-      </c>
-      <c r="D129">
-        <v>214</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130">
-        <v>59.2</v>
-      </c>
-      <c r="B130">
-        <v>131.588</v>
-      </c>
-      <c r="C130">
-        <v>104</v>
-      </c>
-      <c r="D130">
-        <v>142</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131">
-        <v>61.6</v>
-      </c>
-      <c r="B131">
-        <v>38.426</v>
-      </c>
-      <c r="C131">
-        <v>8</v>
-      </c>
-      <c r="D131">
-        <v>43</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132">
-        <v>66</v>
-      </c>
-      <c r="B132">
-        <v>82.80200000000001</v>
-      </c>
-      <c r="C132">
-        <v>13</v>
-      </c>
-      <c r="D132">
-        <v>102</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="B133">
-        <v>155.79</v>
-      </c>
-      <c r="C133">
-        <v>12</v>
-      </c>
-      <c r="D133">
-        <v>191</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="B134">
-        <v>162.526</v>
-      </c>
-      <c r="C134">
-        <v>14</v>
-      </c>
-      <c r="D134">
-        <v>194</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135">
-        <v>86.3</v>
-      </c>
-      <c r="B135">
-        <v>76.752</v>
-      </c>
-      <c r="C135">
-        <v>57</v>
-      </c>
-      <c r="D135">
-        <v>81</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136">
-        <v>89.8</v>
-      </c>
-      <c r="B136">
-        <v>50.484</v>
-      </c>
-      <c r="C136">
-        <v>6</v>
-      </c>
-      <c r="D136">
-        <v>59</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="B137">
-        <v>81.22199999999999</v>
-      </c>
-      <c r="C137">
-        <v>14</v>
-      </c>
-      <c r="D137">
-        <v>98</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138">
-        <v>100.5</v>
-      </c>
-      <c r="B138">
-        <v>126.976</v>
-      </c>
-      <c r="C138">
-        <v>22</v>
-      </c>
-      <c r="D138">
-        <v>133</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139">
-        <v>113</v>
-      </c>
-      <c r="B139">
-        <v>71.148</v>
-      </c>
-      <c r="C139">
-        <v>11</v>
-      </c>
-      <c r="D139">
-        <v>75</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140">
-        <v>125</v>
-      </c>
-      <c r="B140">
-        <v>25.53</v>
-      </c>
-      <c r="C140">
-        <v>25</v>
-      </c>
-      <c r="D140">
-        <v>27</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141">
-        <v>129.4</v>
-      </c>
-      <c r="B141">
-        <v>21</v>
-      </c>
-      <c r="C141">
-        <v>21</v>
-      </c>
-      <c r="D141">
-        <v>21</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142">
-        <v>132.6</v>
-      </c>
-      <c r="B142">
-        <v>11</v>
-      </c>
-      <c r="C142">
-        <v>11</v>
-      </c>
-      <c r="D142">
-        <v>11</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>divvy Nearest Neighbour</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143">
-        <v>2.58</v>
-      </c>
-      <c r="B143">
-        <v>16.822</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>44</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144">
-        <v>5.333</v>
-      </c>
-      <c r="B144">
-        <v>18.4104</v>
-      </c>
-      <c r="C144">
-        <v>4</v>
-      </c>
-      <c r="D144">
-        <v>62</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145">
-        <v>7.246</v>
-      </c>
-      <c r="B145">
-        <v>30.976</v>
-      </c>
-      <c r="C145">
-        <v>4</v>
-      </c>
-      <c r="D145">
-        <v>47</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146">
-        <v>11.63</v>
-      </c>
-      <c r="B146">
-        <v>24.31433333333333</v>
-      </c>
-      <c r="C146">
-        <v>6</v>
-      </c>
-      <c r="D146">
-        <v>77</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147">
-        <v>13.82</v>
-      </c>
-      <c r="B147">
-        <v>23.6068</v>
-      </c>
-      <c r="C147">
-        <v>8</v>
-      </c>
-      <c r="D147">
-        <v>58</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148">
-        <v>15.97</v>
-      </c>
-      <c r="B148">
-        <v>26.222</v>
-      </c>
-      <c r="C148">
-        <v>2</v>
-      </c>
-      <c r="D148">
-        <v>64</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149">
-        <v>20.44</v>
-      </c>
-      <c r="B149">
-        <v>24.7932</v>
-      </c>
-      <c r="C149">
-        <v>3</v>
-      </c>
-      <c r="D149">
-        <v>64</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150">
-        <v>23.03</v>
-      </c>
-      <c r="B150">
-        <v>27.89</v>
-      </c>
-      <c r="C150">
-        <v>9</v>
-      </c>
-      <c r="D150">
-        <v>46</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151">
-        <v>27.82</v>
-      </c>
-      <c r="B151">
-        <v>30.68</v>
-      </c>
-      <c r="C151">
-        <v>7</v>
-      </c>
-      <c r="D151">
-        <v>48</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152">
-        <v>33.9</v>
-      </c>
-      <c r="B152">
-        <v>20.8585</v>
-      </c>
-      <c r="C152">
-        <v>4</v>
-      </c>
-      <c r="D152">
-        <v>40</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153">
-        <v>37.71</v>
-      </c>
-      <c r="B153">
-        <v>24.012</v>
-      </c>
-      <c r="C153">
-        <v>6</v>
-      </c>
-      <c r="D153">
-        <v>60</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154">
-        <v>41.2</v>
-      </c>
-      <c r="B154">
-        <v>34.401</v>
-      </c>
-      <c r="C154">
-        <v>16</v>
-      </c>
-      <c r="D154">
-        <v>87</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155">
-        <v>47.8</v>
-      </c>
-      <c r="B155">
-        <v>42.673</v>
-      </c>
-      <c r="C155">
-        <v>15</v>
-      </c>
-      <c r="D155">
-        <v>103</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156">
-        <v>56</v>
-      </c>
-      <c r="B156">
-        <v>33.381</v>
-      </c>
-      <c r="C156">
-        <v>3</v>
-      </c>
-      <c r="D156">
-        <v>106</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157">
-        <v>59.2</v>
-      </c>
-      <c r="B157">
-        <v>55.17</v>
-      </c>
-      <c r="C157">
-        <v>21</v>
-      </c>
-      <c r="D157">
-        <v>96</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158">
-        <v>61.6</v>
-      </c>
-      <c r="B158">
-        <v>17.105</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158">
-        <v>36</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159">
-        <v>66</v>
-      </c>
-      <c r="B159">
-        <v>31.19866666666667</v>
-      </c>
-      <c r="C159">
-        <v>10</v>
-      </c>
-      <c r="D159">
-        <v>56</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="B160">
-        <v>20.5916</v>
-      </c>
-      <c r="C160">
-        <v>2</v>
-      </c>
-      <c r="D160">
-        <v>70</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="B161">
-        <v>26.816</v>
-      </c>
-      <c r="C161">
-        <v>2</v>
-      </c>
-      <c r="D161">
-        <v>66</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162">
-        <v>86.3</v>
-      </c>
-      <c r="B162">
-        <v>35.148</v>
-      </c>
-      <c r="C162">
-        <v>7</v>
-      </c>
-      <c r="D162">
-        <v>65</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163">
-        <v>89.8</v>
-      </c>
-      <c r="B163">
-        <v>22.294</v>
-      </c>
-      <c r="C163">
-        <v>7</v>
-      </c>
-      <c r="D163">
-        <v>47</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="B164">
-        <v>26.326</v>
-      </c>
-      <c r="C164">
-        <v>8</v>
-      </c>
-      <c r="D164">
-        <v>54</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165">
-        <v>100.5</v>
-      </c>
-      <c r="B165">
-        <v>19.7476</v>
-      </c>
-      <c r="C165">
-        <v>5</v>
-      </c>
-      <c r="D165">
-        <v>62</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166">
-        <v>113</v>
-      </c>
-      <c r="B166">
-        <v>20.37</v>
-      </c>
-      <c r="C166">
-        <v>10</v>
-      </c>
-      <c r="D166">
-        <v>52</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167">
-        <v>125</v>
-      </c>
-      <c r="B167">
-        <v>19.956</v>
-      </c>
-      <c r="C167">
-        <v>10</v>
-      </c>
-      <c r="D167">
-        <v>27</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168">
-        <v>129.4</v>
-      </c>
-      <c r="B168">
-        <v>13</v>
-      </c>
-      <c r="C168">
-        <v>13</v>
-      </c>
-      <c r="D168">
-        <v>13</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169">
-        <v>132.6</v>
-      </c>
-      <c r="B169">
-        <v>10.004</v>
-      </c>
-      <c r="C169">
-        <v>8</v>
-      </c>
-      <c r="D169">
-        <v>11</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>divvy Equal Latitudinal Bands</t>
+          <t>divvy</t>
         </is>
       </c>
     </row>
